--- a/Team-Data/2007-08/3-3-2007-08.xlsx
+++ b/Team-Data/2007-08/3-3-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -959,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>8</v>
@@ -989,7 +1056,7 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-5.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
@@ -1135,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN4" t="n">
         <v>15</v>
@@ -1144,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1153,7 +1220,7 @@
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>25</v>
@@ -1177,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>22</v>
@@ -1359,10 +1426,10 @@
         <v>18</v>
       </c>
       <c r="BA5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1502,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="n">
         <v>39</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.639</v>
+        <v>0.65</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1594,25 +1661,25 @@
         <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.461</v>
       </c>
       <c r="L7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M7" t="n">
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O7" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P7" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8179999999999999</v>
@@ -1621,22 +1688,22 @@
         <v>11</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U7" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V7" t="n">
         <v>12.9</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y7" t="n">
         <v>4.2</v>
@@ -1645,19 +1712,19 @@
         <v>21.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
@@ -1666,7 +1733,7 @@
         <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>16</v>
@@ -1675,7 +1742,7 @@
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
@@ -1684,13 +1751,13 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1705,7 +1772,7 @@
         <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,22 +1781,22 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA7" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB7" t="n">
         <v>13</v>
       </c>
-      <c r="BB7" t="n">
-        <v>12</v>
-      </c>
       <c r="BC7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>8.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2039,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2233,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
@@ -2421,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,10 +2753,10 @@
         <v>34.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
         <v>4.2</v>
@@ -2698,28 +2765,28 @@
         <v>12.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O13" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P13" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="Q13" t="n">
         <v>0.788</v>
       </c>
       <c r="R13" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S13" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="T13" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="U13" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
@@ -2734,25 +2801,25 @@
         <v>5.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5.5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
@@ -2791,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU13" t="n">
         <v>16</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>15</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2806,19 +2873,19 @@
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA13" t="n">
         <v>12</v>
       </c>
       <c r="BB13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC13" t="n">
         <v>23</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3182,10 +3249,10 @@
         <v>8</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
@@ -3364,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="BB16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
@@ -3543,10 +3610,10 @@
         <v>19</v>
       </c>
       <c r="BA17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3674,7 +3741,7 @@
         <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>0.678</v>
+        <v>0.672</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,52 +4027,52 @@
         <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L20" t="n">
         <v>7.8</v>
       </c>
       <c r="M20" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
         <v>0.389</v>
       </c>
       <c r="O20" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P20" t="n">
         <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T20" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>3.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z20" t="n">
         <v>19</v>
@@ -4017,10 +4084,10 @@
         <v>100</v>
       </c>
       <c r="AC20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4032,16 +4099,16 @@
         <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK20" t="n">
         <v>7</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4065,13 +4132,13 @@
         <v>15</v>
       </c>
       <c r="AS20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4083,7 +4150,7 @@
         <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3</v>
+        <v>0.305</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4142,10 +4209,10 @@
         <v>35.2</v>
       </c>
       <c r="J21" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
         <v>5.8</v>
@@ -4154,40 +4221,40 @@
         <v>17.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O21" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P21" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R21" t="n">
         <v>12.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U21" t="n">
         <v>18.6</v>
       </c>
       <c r="V21" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W21" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X21" t="n">
         <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
         <v>21.3</v>
@@ -4196,13 +4263,13 @@
         <v>21.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.2</v>
+        <v>-6.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4229,25 +4296,25 @@
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN21" t="n">
         <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR21" t="n">
         <v>9</v>
       </c>
       <c r="AS21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4259,7 +4326,7 @@
         <v>21</v>
       </c>
       <c r="AW21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4271,13 +4338,13 @@
         <v>17</v>
       </c>
       <c r="BA21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB21" t="n">
         <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -4432,7 +4499,7 @@
         <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
         <v>24</v>
@@ -4447,7 +4514,7 @@
         <v>24</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
         <v>15</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -4488,58 +4555,58 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" t="n">
         <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>0.459</v>
+        <v>0.45</v>
       </c>
       <c r="H23" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J23" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.318</v>
+        <v>0.314</v>
       </c>
       <c r="O23" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P23" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.702</v>
+        <v>0.703</v>
       </c>
       <c r="R23" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S23" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V23" t="n">
         <v>15.1</v>
@@ -4554,19 +4621,19 @@
         <v>4.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4575,10 +4642,10 @@
         <v>18</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4587,7 +4654,7 @@
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4602,7 +4669,7 @@
         <v>20</v>
       </c>
       <c r="AP23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4614,10 +4681,10 @@
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
         <v>19</v>
@@ -4626,19 +4693,19 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>4.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4975,7 +5042,7 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
@@ -4996,7 +5063,7 @@
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>18</v>
@@ -5157,10 +5224,10 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
@@ -5306,7 +5373,7 @@
         <v>3</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5333,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>4.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5703,7 +5770,7 @@
         <v>26</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT29" t="n">
         <v>26</v>
@@ -5724,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -5762,94 +5829,94 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.639</v>
+        <v>0.633</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="L30" t="n">
         <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O30" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="P30" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.758</v>
+        <v>0.755</v>
       </c>
       <c r="R30" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T30" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
         <v>9</v>
       </c>
       <c r="X30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="AA30" t="n">
         <v>23.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="AC30" t="n">
         <v>5.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5879,13 +5946,13 @@
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6070,7 +6137,7 @@
         <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6085,7 +6152,7 @@
         <v>13</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>3</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-3-2007-08</t>
+          <t>2008-03-03</t>
         </is>
       </c>
     </row>
